--- a/RejectedCaseSample.xlsx
+++ b/RejectedCaseSample.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="97">
   <si>
     <t>uuid</t>
   </si>
@@ -119,67 +119,115 @@
     <t>unemploymentBenefitRHistory</t>
   </si>
   <si>
-    <t>U0G4KYRYRKNUWDK0</t>
-  </si>
-  <si>
-    <t>1964-11-26</t>
+    <t>J92TZ8FRUG8471VD</t>
+  </si>
+  <si>
+    <t>1974-08-23</t>
   </si>
   <si>
     <t>male</t>
   </si>
   <si>
+    <t>Άλλο</t>
+  </si>
+  <si>
+    <t>notmarried</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>employed</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>3334</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>5112.0</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>2021-02-16 02:55:42==3334|</t>
+  </si>
+  <si>
+    <t>2021-02-16 02:55:42==0|</t>
+  </si>
+  <si>
+    <t>2021-02-16 02:55:42==856|</t>
+  </si>
+  <si>
+    <t>2021-02-16 02:55:42==66|</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AFLHJSZUHS33FNFT</t>
+  </si>
+  <si>
+    <t>1979-01-17</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>Ελληνική</t>
   </si>
   <si>
-    <t>notmarried</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>employed</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1064</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>740.0</t>
-  </si>
-  <si>
-    <t>2894.0</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==470|</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==0|</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==1064|</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==240|</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==56|2021-01-03 22:40:15==740.0|</t>
-  </si>
-  <si>
-    <t/>
+    <t>married</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>2021-02-16 02:55:42==4|</t>
+  </si>
+  <si>
+    <t>2021-02-16 02:55:42==3|</t>
+  </si>
+  <si>
+    <t>M49U7ICB74EY1J7A</t>
+  </si>
+  <si>
+    <t>1958-04-06</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2021-02-16 02:55:42==1|</t>
+  </si>
+  <si>
+    <t>Z3DZD2V3YT4FT5X8</t>
+  </si>
+  <si>
+    <t>1966-05-13</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>Uuid</t>
@@ -197,13 +245,16 @@
     <t>Rejection Date</t>
   </si>
   <si>
+    <t>Rejection Code</t>
+  </si>
+  <si>
     <t>Daily Benefit</t>
   </si>
   <si>
     <t>Current Sum</t>
   </si>
   <si>
-    <t>2021-02-13 19:43:00</t>
+    <t>2021-02-23 10:18:25</t>
   </si>
   <si>
     <t>REJECTED</t>
@@ -212,7 +263,13 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>2021-01-18</t>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>REJECTION102</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>History Date</t>
@@ -227,28 +284,13 @@
     <t>History Daily Sum</t>
   </si>
   <si>
-    <t>2021-02-10 00:00:00</t>
+    <t>2021-02-16 00:00:00</t>
   </si>
   <si>
     <t>UNDEFINED</t>
   </si>
   <si>
-    <t>2021-02-11 19:43:00</t>
-  </si>
-  <si>
-    <t>ACCEPTED</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>2021-02-12 19:43:00</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>1.30</t>
+    <t>2021-02-18 10:18:25</t>
   </si>
   <si>
     <t>Payment Date</t>
@@ -257,7 +299,10 @@
     <t>Payment State</t>
   </si>
   <si>
-    <t>Payment Value</t>
+    <t>Calculated Payment</t>
+  </si>
+  <si>
+    <t>Actual Payment Value</t>
   </si>
 </sst>
 </file>
@@ -331,47 +376,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.87109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="25.0625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="21.0859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="24.265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="26.83203125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="17.28125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.3671875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.15625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.6875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="15.7421875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="18.75390625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="33.40625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="21.546875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="9.33984375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.4765625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="13.53515625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="23.8359375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="14.6875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="29.66015625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="27.0" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="20.421875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.8046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.68359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="9.6015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.93359375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="24.72265625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="23.25390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="25.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="31.11328125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="24.25" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="39.2265625" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="36.5625" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="42.96875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="32.95703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="28.65625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="23.83984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.26953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.2265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.72265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.5078125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="17.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="15.55859375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="17.875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="20.96875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="37.21875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="24.39453125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="22.80078125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="15.234375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="26.98828125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="16.61328125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="33.62109375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="30.7734375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="22.94140625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="22.36328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.71484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="11.15234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="36.74609375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="32.29296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="32.29296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="35.26171875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="35.2890625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="32.29296875" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="41.6640625" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="48.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -540,165 +585,495 @@
         <v>44</v>
       </c>
       <c r="T2" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Y2" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="U2" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="W2" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="X2" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="Y2" t="s" s="1">
+      <c r="Z2" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="Z2" t="s" s="1">
+      <c r="AA2" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="AA2" t="s" s="1">
-        <v>50</v>
-      </c>
       <c r="AB2" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC2" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD2" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="AC2" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AD2" t="s" s="1">
+      <c r="AE2" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="AE2" t="s" s="1">
+      <c r="AF2" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG2" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH2" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI2" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="AF2" t="s" s="1">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="AG2" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AH2" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AI2" t="s" s="1">
+      <c r="B3" t="s" s="1">
         <v>55</v>
       </c>
+      <c r="C3" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="R3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="W3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="X3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Y3" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Z3" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AB3" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC3" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD3" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AE3" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AF3" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG3" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH3" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI3" t="s" s="1">
+        <v>53</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="B4" t="s" s="3">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s" s="3">
+      <c r="D4" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="D4" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s" s="3">
-        <v>62</v>
+      <c r="F4" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="M4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="R4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="S4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="T4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="U4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="W4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="X4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Y4" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="Z4" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA4" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB4" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC4" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD4" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE4" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF4" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG4" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH4" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI4" t="s" s="1">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s" s="1">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="H5" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="T5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="U5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="V5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="W5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="X5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Y5" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="Z5" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA5" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB5" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC5" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD5" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE5" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF5" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG5" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH5" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI5" t="s" s="1">
+        <v>53</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s" s="4">
-        <v>70</v>
+      <c r="A7" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s" s="3">
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s" s="1">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="E8" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s" s="1">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s" s="1">
-        <v>78</v>
+      <c r="A10" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s" s="5">
+      <c r="A12" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
         <v>80</v>
       </c>
-      <c r="C12" t="s" s="5">
+      <c r="B13" t="s" s="1">
         <v>81</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="5">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s" s="5">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s" s="5">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s" s="5">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
